--- a/final-framework-testng/target/classes/RegistrationTestData.xlsx
+++ b/final-framework-testng/target/classes/RegistrationTestData.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{61E15C56-D5C3-459A-825C-B2CF480A1813}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EA1CB4C1-55C4-45BB-87EE-E5ADCA636A09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="5320" windowHeight="4680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="5340" windowHeight="8050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="newRegister" sheetId="1" r:id="rId1"/>
-    <sheet name="addCatagoryDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:K13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>India</t>
   </si>
@@ -46,30 +45,6 @@
   </si>
   <si>
     <t>rutuja12@gmail.com</t>
-  </si>
-  <si>
-    <t>Sports wear</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Cultural wear</t>
-  </si>
-  <si>
-    <t>Cultural</t>
-  </si>
-  <si>
-    <t>Weekend uniform</t>
-  </si>
-  <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>Formal wear</t>
-  </si>
-  <si>
-    <t>formal</t>
   </si>
 </sst>
 </file>
@@ -129,13 +104,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,7 +394,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,75 +447,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F9B070-D756-4E87-9FA2-400E1E825EF4}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>